--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>QNTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43039</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42947</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -753,8 +756,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -762,8 +765,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,10 +777,10 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -782,8 +788,8 @@
       <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -800,29 +806,32 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,25 +866,26 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -881,10 +894,10 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,13 +946,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -947,14 +966,14 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1129,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1149,51 +1182,57 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1201,23 +1240,23 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1585,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1605,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43039</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42947</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,37 +1879,38 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,22 +1959,25 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1896,8 +1988,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1908,31 +2000,34 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1946,13 +2041,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1960,8 +2058,8 @@
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1975,8 +2073,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -1984,13 +2082,16 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -1999,22 +2100,22 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,28 +2164,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2241,8 +2360,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,37 +2410,40 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
       </c>
       <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,13 +2487,14 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2379,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>200</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,42 +2538,45 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2448,8 +2584,8 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2460,8 +2596,8 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2472,13 +2608,16 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -2487,22 +2626,22 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>200</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,13 +2702,13 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2719,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,37 +2854,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>200</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-300</v>
       </c>
       <c r="J72" s="3">
         <v>-300</v>
       </c>
       <c r="K72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,13 +3240,16 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
         <v>200</v>
@@ -3073,22 +3258,22 @@
         <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>-200</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43039</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42947</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,7 +3441,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3260,8 +3458,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,20 +3742,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,28 +3865,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,37 +4075,40 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,13 +4157,16 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3924,27 +4175,30 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,37 +747,43 @@
         <v>400</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,25 +791,25 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,26 +838,26 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
         <v>100</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,37 +983,43 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,20 +1210,22 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1165,69 +1233,81 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,16 +1315,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1252,64 +1332,76 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,20 +1770,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1657,69 +1797,81 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1991,11 +2177,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2003,19 +2189,25 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -2029,11 +2221,11 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2044,28 +2236,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2076,58 +2274,70 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2377,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2424,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2363,17 +2603,23 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2512,66 +2774,78 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,19 +2853,19 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2599,11 +2873,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2611,54 +2885,66 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2693,40 +2979,46 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3000</v>
       </c>
       <c r="I72" s="3">
         <v>-2600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>200</v>
       </c>
       <c r="G76" s="3">
         <v>200</v>
       </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,10 +3842,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,26 +4184,26 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3865,40 +4325,46 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,26 +748,26 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -773,8 +777,8 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,19 +798,19 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -811,8 +818,8 @@
       <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,29 +848,29 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,25 +918,25 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -931,10 +945,10 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1006,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1021,8 +1041,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,23 +1245,24 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1239,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1259,60 +1293,66 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1321,7 +1361,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1329,23 +1369,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,23 +1843,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1803,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,34 +2153,34 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2163,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,13 +2300,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2227,8 +2323,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,8 +2355,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2265,8 +2364,8 @@
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2280,8 +2379,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,10 +2403,10 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2313,22 +2415,22 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,37 +2488,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>500</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2609,8 +2729,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,46 +2788,49 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1300</v>
       </c>
       <c r="F54" s="3">
         <v>1300</v>
       </c>
       <c r="G54" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
+        <v>800</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,13 +2880,14 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2765,7 +2896,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2780,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>200</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2797,69 +2928,75 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2867,8 +3004,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3016,8 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2891,22 +3028,25 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2915,22 +3055,22 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>200</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,7 +3090,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2985,31 +3128,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,46 +3328,49 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>200</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
       </c>
       <c r="N72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,22 +3798,25 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>200</v>
       </c>
       <c r="H76" s="3">
         <v>200</v>
@@ -3639,22 +3825,22 @@
         <v>200</v>
       </c>
       <c r="J76" s="3">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>-200</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,29 +4405,29 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,37 +4555,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,46 +4813,49 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,14 +4925,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4688,27 +4940,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>QNTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,10 +755,10 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -760,19 +767,19 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -780,52 +787,58 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -839,44 +852,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,7 +945,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -930,37 +957,43 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,46 +1042,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>100</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,29 +1311,31 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1276,78 +1343,90 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,25 +1434,25 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1381,73 +1460,85 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,29 +1979,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1876,78 +2015,90 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2312,15 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2156,43 +2329,49 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2259,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2279,11 +2464,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2291,28 +2476,34 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2326,11 +2517,11 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2341,16 +2532,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2358,20 +2555,20 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2382,22 +2579,28 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2406,43 +2609,49 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,44 +2700,50 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2756,14 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2703,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2732,17 +2971,23 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,28 +3140,30 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2914,75 +3175,87 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2990,28 +3263,28 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3019,11 +3292,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3031,58 +3304,70 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,10 +3378,10 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,40 +3431,40 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3000</v>
       </c>
       <c r="L72" s="3">
         <v>-2600</v>
       </c>
       <c r="M72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>200</v>
       </c>
       <c r="J76" s="3">
         <v>200</v>
       </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4421,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4050,10 +4447,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4067,17 +4464,23 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4408,32 +4849,32 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4558,46 +5017,52 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>QNTA</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
         <v>2000</v>
@@ -1240,8 +1240,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
         <v>-1800</v>
@@ -1318,8 +1318,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
@@ -1374,8 +1374,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-3000</v>
       </c>
       <c r="E21" s="3">
         <v>-2100</v>
@@ -1486,8 +1486,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
         <v>-2200</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
         <v>-2200</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
         <v>-2200</v>
@@ -1990,8 +1990,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
         <v>-2200</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
         <v>-2200</v>
@@ -2432,7 +2432,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2543,8 +2543,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>100</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -3652,7 +3652,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E66" s="3">
         <v>3300</v>
@@ -3842,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4177,8 +4177,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>-3900</v>
       </c>
       <c r="E76" s="3">
         <v>-2600</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
         <v>-2200</v>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,114 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -773,19 +781,19 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -793,58 +801,64 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -858,50 +872,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,7 +979,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -963,37 +991,43 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,43 +1097,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>100</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,35 +1379,37 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1349,89 +1417,101 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1440,25 +1520,25 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1466,79 +1546,91 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2900</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
         <v>-2200</v>
       </c>
       <c r="F27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,35 +2119,41 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2021,84 +2161,96 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2900</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
         <v>-2200</v>
       </c>
       <c r="F33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2900</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
         <v>-2200</v>
       </c>
       <c r="F35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,19 +2486,21 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2335,43 +2509,49 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,22 +2606,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2450,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2470,11 +2656,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,34 +2668,40 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2523,11 +2715,11 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2538,22 +2730,28 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2561,20 +2759,20 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2585,28 +2783,34 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2615,43 +2819,49 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,41 +2931,41 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2948,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2977,17 +3217,23 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,25 +3413,25 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3181,116 +3443,128 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3298,11 +3572,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3310,69 +3584,81 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -3384,10 +3670,10 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3422,13 +3708,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3437,40 +3729,40 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,10 +4181,10 @@
         <v>1700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-3000</v>
       </c>
       <c r="N72" s="3">
         <v>-2600</v>
       </c>
       <c r="O72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>200</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>200</v>
+      </c>
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2900</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
         <v>-2200</v>
       </c>
       <c r="F81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4453,10 +4851,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4470,17 +4868,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +5202,61 @@
         <v>-800</v>
       </c>
       <c r="E89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4855,32 +5297,32 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5023,46 +5483,52 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,37 +769,37 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -807,8 +810,8 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -816,22 +819,25 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -840,28 +846,28 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>100</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -878,53 +884,56 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,28 +998,28 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1015,10 +1028,10 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,31 +1122,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1135,8 +1154,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,61 +1258,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1295,70 +1321,76 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,29 +1423,29 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1423,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1443,90 +1476,96 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1535,7 +1574,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1543,23 +1582,23 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,29 +2203,29 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2167,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2515,34 +2601,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2630,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2642,16 +2734,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2754,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2686,25 +2781,25 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2721,8 +2816,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2748,13 +2846,13 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2765,8 +2863,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2774,8 +2872,8 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2789,8 +2887,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,13 +2908,13 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2825,11 +2926,11 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -2837,22 +2938,22 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -2937,37 +3044,37 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>500</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3194,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3223,8 +3342,8 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3303,52 +3428,52 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1300</v>
       </c>
       <c r="K54" s="3">
         <v>1300</v>
       </c>
       <c r="L54" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
       <c r="N54" s="3">
+        <v>800</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,29 +3533,30 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
@@ -3434,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3449,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>200</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3466,61 +3596,64 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3537,10 +3673,10 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -3549,25 +3685,25 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>100</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3578,8 +3714,8 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3590,37 +3726,40 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3629,22 +3768,22 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
+      <c r="T60" s="3">
+        <v>200</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
@@ -3652,16 +3791,19 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3676,7 +3818,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3723,7 +3868,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3735,25 +3880,25 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>400</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,61 +4116,64 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
+      <c r="T66" s="3">
+        <v>200</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4187,7 +4354,7 @@
         <v>1700</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-300</v>
       </c>
       <c r="R72" s="3">
         <v>-300</v>
       </c>
       <c r="S72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,37 +4726,40 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>200</v>
       </c>
       <c r="M76" s="3">
         <v>200</v>
@@ -4583,22 +4768,22 @@
         <v>200</v>
       </c>
       <c r="O76" s="3">
+        <v>200</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
+      <c r="T76" s="3">
+        <v>-200</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4836,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4857,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4874,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5303,29 +5523,29 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5489,37 +5718,37 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,61 +6041,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,23 +6171,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5947,14 +6198,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5962,27 +6213,30 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QNTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>QNTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,37 +776,37 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -813,8 +817,8 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -849,28 +856,28 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>100</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,47 +906,47 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1001,28 +1015,28 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1031,10 +1045,10 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1125,31 +1145,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1177,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,64 +1285,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1324,73 +1351,79 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,29 +1460,29 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1459,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1479,96 +1513,102 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1577,7 +1617,7 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1585,23 +1625,23 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,29 +2276,29 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2239,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2604,34 +2691,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2716,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2725,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2737,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2757,8 +2850,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2784,25 +2880,25 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -2819,8 +2915,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,13 +2948,13 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2866,8 +2965,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2875,8 +2974,8 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2890,8 +2989,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2911,13 +3013,13 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2929,11 +3031,11 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -2941,22 +3043,22 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3146,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3047,37 +3155,37 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>500</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3316,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3345,8 +3465,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,64 +3542,67 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>900</v>
       </c>
       <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1300</v>
       </c>
       <c r="L54" s="3">
         <v>1300</v>
       </c>
       <c r="M54" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
       </c>
       <c r="O54" s="3">
+        <v>800</v>
+      </c>
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,23 +3674,23 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
@@ -3567,7 +3698,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3582,16 +3713,16 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>200</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -3599,64 +3730,67 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,10 +3813,10 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -3688,25 +3825,25 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3717,8 +3854,8 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,31 +3878,31 @@
         <v>3400</v>
       </c>
       <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3771,22 +3911,22 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
+      <c r="U60" s="3">
+        <v>200</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,10 +3946,10 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3821,7 +3964,7 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3883,25 +4029,25 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>400</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3912,8 +4058,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,64 +4274,67 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
+      <c r="U66" s="3">
+        <v>200</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,13 +4504,16 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E70" s="3">
         <v>1700</v>
@@ -4357,7 +4525,7 @@
         <v>1700</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-300</v>
       </c>
       <c r="S72" s="3">
         <v>-300</v>
       </c>
       <c r="T72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,40 +4912,43 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>200</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
@@ -4771,22 +4957,22 @@
         <v>200</v>
       </c>
       <c r="P76" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
+      <c r="U76" s="3">
+        <v>-200</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5058,7 +5257,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,64 +5635,67 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5526,29 +5747,29 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5721,37 +5951,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,55 +6299,55 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,17 +6435,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6201,14 +6453,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6216,27 +6468,30 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
